--- a/src/dxf_base/naming_base (5).xlsx
+++ b/src/dxf_base/naming_base (5).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs_spb\Личные папки\Маляров_М\Оболочки таблица\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.zubkov\PycharmProjects\FinalProject\src\dxf_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD51E1-61A2-4A45-86B2-78E5A6B332FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197860D5-5B4B-4F7B-A2C5-BCEFB8EFBF63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="536">
   <si>
     <t>Блок</t>
   </si>
@@ -707,12 +707,6 @@
   </si>
   <si>
     <t>Цена</t>
-  </si>
-  <si>
-    <t>(0)??</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t>ВРПТ.425955.002</t>
@@ -1988,21 +1982,6 @@
   </si>
   <si>
     <r>
-      <t>СПЕЦИФИКАЦИЯ SUPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>↓↓</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Шина </t>
     </r>
     <r>
@@ -2089,15 +2068,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2143,13 +2127,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2166,18 +2143,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2191,29 +2162,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2495,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,7 +2481,7 @@
     <col min="3" max="3" width="116.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2538,7 +2511,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="9"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2556,7 +2529,7 @@
       <c r="E3" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="14">
         <v>3368.67</v>
       </c>
     </row>
@@ -2577,7 +2550,7 @@
         <v>201</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="9">
+      <c r="H4" s="13">
         <v>7857.28</v>
       </c>
     </row>
@@ -2597,9 +2570,6 @@
       <c r="E5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2617,7 +2587,7 @@
       <c r="E6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="13">
         <v>7834.84</v>
       </c>
     </row>
@@ -2637,7 +2607,7 @@
       <c r="E7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="13">
         <v>1485.06</v>
       </c>
     </row>
@@ -2657,7 +2627,7 @@
       <c r="E8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="13">
         <v>1823.4</v>
       </c>
     </row>
@@ -2677,7 +2647,7 @@
       <c r="E9" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="13">
         <v>1954.54</v>
       </c>
     </row>
@@ -2697,7 +2667,7 @@
       <c r="E10" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="13">
         <v>2029.54</v>
       </c>
     </row>
@@ -2717,9 +2687,6 @@
       <c r="E11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2737,7 +2704,7 @@
       <c r="E12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="13">
         <v>7154.1</v>
       </c>
     </row>
@@ -2757,7 +2724,7 @@
       <c r="E13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="13">
         <v>607.79</v>
       </c>
     </row>
@@ -2777,7 +2744,7 @@
       <c r="E14" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="13">
         <v>615.75</v>
       </c>
     </row>
@@ -2797,7 +2764,7 @@
       <c r="E15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="13">
         <v>619.58000000000004</v>
       </c>
     </row>
@@ -2817,7 +2784,7 @@
       <c r="E16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="13">
         <v>884.21</v>
       </c>
     </row>
@@ -2837,7 +2804,7 @@
       <c r="E17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="13">
         <v>1188.3800000000001</v>
       </c>
     </row>
@@ -2857,7 +2824,7 @@
       <c r="E18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="13">
         <v>1680.86</v>
       </c>
     </row>
@@ -2877,7 +2844,7 @@
       <c r="E19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="13">
         <v>1933.75</v>
       </c>
     </row>
@@ -2897,7 +2864,7 @@
       <c r="E20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="13">
         <v>2385.3200000000002</v>
       </c>
     </row>
@@ -2917,7 +2884,7 @@
       <c r="E21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="13">
         <v>1097.43</v>
       </c>
     </row>
@@ -2937,7 +2904,7 @@
       <c r="E22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="13">
         <v>1323.49</v>
       </c>
     </row>
@@ -2957,7 +2924,7 @@
       <c r="E23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="13">
         <v>800</v>
       </c>
     </row>
@@ -2977,7 +2944,7 @@
       <c r="E24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="13">
         <v>809</v>
       </c>
     </row>
@@ -2997,7 +2964,7 @@
       <c r="E25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="13">
         <v>1114.22</v>
       </c>
     </row>
@@ -3017,7 +2984,7 @@
       <c r="E26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="13">
         <v>1502.44</v>
       </c>
     </row>
@@ -3037,7 +3004,7 @@
       <c r="E27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="13">
         <v>2090.85</v>
       </c>
     </row>
@@ -3057,7 +3024,7 @@
       <c r="E28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="13">
         <v>2614.04</v>
       </c>
     </row>
@@ -3077,7 +3044,7 @@
       <c r="E29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="13">
         <v>3278.33</v>
       </c>
     </row>
@@ -3097,7 +3064,7 @@
       <c r="E30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="13">
         <v>2050.9699999999998</v>
       </c>
     </row>
@@ -3117,7 +3084,7 @@
       <c r="E31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="13">
         <v>809.71</v>
       </c>
     </row>
@@ -3137,7 +3104,7 @@
       <c r="E32" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="13">
         <v>1114.22</v>
       </c>
     </row>
@@ -3157,7 +3124,7 @@
       <c r="E33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="13">
         <v>1502.44</v>
       </c>
     </row>
@@ -3177,7 +3144,7 @@
       <c r="E34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="13">
         <v>2090.85</v>
       </c>
     </row>
@@ -3197,7 +3164,7 @@
       <c r="E35" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="13">
         <v>457.91</v>
       </c>
     </row>
@@ -3217,7 +3184,7 @@
       <c r="E36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="13">
         <v>572.91</v>
       </c>
     </row>
@@ -3237,7 +3204,7 @@
       <c r="E37" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="13">
         <v>756.6</v>
       </c>
     </row>
@@ -3257,7 +3224,7 @@
       <c r="E38" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="13">
         <v>784.41</v>
       </c>
     </row>
@@ -3277,7 +3244,7 @@
       <c r="E39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="13">
         <v>805.83</v>
       </c>
     </row>
@@ -3297,7 +3264,7 @@
       <c r="E40" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="13">
         <v>1009.27</v>
       </c>
     </row>
@@ -3317,7 +3284,7 @@
       <c r="E41" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="13">
         <v>786.32</v>
       </c>
     </row>
@@ -3337,7 +3304,7 @@
       <c r="E42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="13">
         <v>907.54</v>
       </c>
     </row>
@@ -3357,7 +3324,7 @@
       <c r="E43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="13">
         <v>1353.21</v>
       </c>
     </row>
@@ -3377,7 +3344,7 @@
       <c r="E44" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="13">
         <v>1071.22</v>
       </c>
     </row>
@@ -3397,7 +3364,7 @@
       <c r="E45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="13">
         <v>1416.76</v>
       </c>
     </row>
@@ -3417,7 +3384,7 @@
       <c r="E46" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="13">
         <v>1970.39</v>
       </c>
     </row>
@@ -3437,7 +3404,7 @@
       <c r="E47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="13">
         <v>1424</v>
       </c>
     </row>
@@ -3457,7 +3424,7 @@
       <c r="E48" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="13">
         <v>1943.26</v>
       </c>
     </row>
@@ -3477,7 +3444,7 @@
       <c r="E49" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="13">
         <v>655.29999999999995</v>
       </c>
     </row>
@@ -3497,7 +3464,7 @@
       <c r="E50" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="13">
         <v>655.29999999999995</v>
       </c>
     </row>
@@ -3517,7 +3484,7 @@
       <c r="E51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="13">
         <v>655.29999999999995</v>
       </c>
     </row>
@@ -3537,7 +3504,7 @@
       <c r="E52" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="13">
         <v>1193.92</v>
       </c>
     </row>
@@ -3557,7 +3524,7 @@
       <c r="E53" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="13">
         <v>1195.3800000000001</v>
       </c>
     </row>
@@ -3577,7 +3544,7 @@
       <c r="E54" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="13">
         <v>1195.3800000000001</v>
       </c>
     </row>
@@ -3594,9 +3561,6 @@
       <c r="E55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -3783,7 +3747,7 @@
     </row>
     <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D68" s="3"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -4208,7 +4172,7 @@
     </row>
     <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D99" s="3"/>
-      <c r="H99" s="9"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
@@ -4278,7 +4242,7 @@
       <c r="D105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H105" s="9">
+      <c r="H105" s="13">
         <v>12249.18</v>
       </c>
     </row>
@@ -4309,7 +4273,7 @@
       <c r="D107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H107" s="9">
+      <c r="H107" s="13">
         <v>25095.06</v>
       </c>
     </row>
@@ -4326,7 +4290,7 @@
       <c r="D108" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H108" s="9">
+      <c r="H108" s="13">
         <v>1608.87</v>
       </c>
     </row>
@@ -4366,7 +4330,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>206</v>
       </c>
@@ -4377,7 +4341,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>209</v>
       </c>
@@ -4388,7 +4352,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>212</v>
       </c>
@@ -4399,7 +4363,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>221</v>
       </c>
@@ -4410,7 +4374,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>222</v>
       </c>
@@ -4421,7 +4385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>223</v>
       </c>
@@ -4432,7 +4396,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>224</v>
       </c>
@@ -4443,7 +4407,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>224</v>
       </c>
@@ -4454,7 +4418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>224</v>
       </c>
@@ -4465,2370 +4429,2375 @@
         <v>190</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="14" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>528</v>
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="D123" s="3"/>
+      <c r="H123" s="13"/>
+    </row>
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="D124" s="3"/>
+      <c r="H124" s="13"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>528</v>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>529</v>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>189</v>
+      <c r="B130" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>238</v>
+      <c r="B131" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
+      <c r="B132" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="13"/>
-      <c r="C133" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="13"/>
-      <c r="C134" s="12" t="s">
-        <v>531</v>
+      <c r="B134" s="11"/>
+      <c r="C134" s="10" t="s">
+        <v>528</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="13"/>
-      <c r="C135" s="11" t="s">
-        <v>195</v>
+      <c r="B135" s="11"/>
+      <c r="C135" s="10" t="s">
+        <v>529</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="13"/>
-      <c r="C136" s="11" t="s">
-        <v>192</v>
+      <c r="B136" s="11"/>
+      <c r="C136" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="13"/>
-      <c r="C137" s="11" t="s">
-        <v>196</v>
+      <c r="B137" s="11"/>
+      <c r="C137" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="13"/>
-      <c r="C138" s="11" t="s">
-        <v>193</v>
+      <c r="B138" s="11"/>
+      <c r="C138" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C143" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11" t="s">
+      <c r="D143" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C144" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H151" s="13">
+        <v>366.68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H152" s="13">
+        <v>343.11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C142" s="12" t="s">
+      <c r="D153" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H153" s="13">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="B154" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H150" s="9">
-        <v>366.68</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H151" s="9">
-        <v>343.11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11" t="s">
+      <c r="D154" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H154" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C155" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H152" s="9">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="11" t="s">
+      <c r="D155" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H155" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C156" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H156" s="13">
+        <v>82.65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H157" s="13">
+        <v>84.39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+      <c r="B158" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H158" s="13">
+        <v>94.83</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H159" s="13">
+        <v>102.66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H160" s="13">
+        <v>108.96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H161" s="13">
+        <v>216.13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H162" s="13">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H163" s="13">
+        <v>1476.39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H164" s="13">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H153" s="9">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C154" s="12" t="s">
+      <c r="D165" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H165" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="B166" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H154" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H155" s="9">
+      <c r="D166" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H166" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H167" s="13">
         <v>82.65</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H156" s="9">
-        <v>84.39</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H157" s="9">
-        <v>94.83</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H158" s="9">
-        <v>102.66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H159" s="9">
-        <v>108.96</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H160" s="9">
-        <v>216.13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H161" s="9">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H168" s="13">
+        <v>90.48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H169" s="13">
+        <v>140.07</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H170" s="13">
+        <v>161.82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H171" s="13">
+        <v>184.44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="B172" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H172" s="13">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+      <c r="B173" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H173" s="13">
+        <v>985.71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="B174" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H174" s="13">
+        <v>1297.23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="B175" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H175" s="13">
+        <v>1758.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="8"/>
+      <c r="B176" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H176" s="13">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+      <c r="B177" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H177" s="13">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+      <c r="B178" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H178" s="13">
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H179" s="13">
+        <v>37.409999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+      <c r="B180" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H180" s="13">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H181" s="13">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+      <c r="B182" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H182" s="13">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H183" s="13">
+        <v>58.29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H184" s="13">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H185" s="13">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+      <c r="B186" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H186" s="13">
+        <v>154.86000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+      <c r="B187" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H187" s="13">
+        <v>169.65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="8"/>
+      <c r="B188" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H188" s="13">
+        <v>649.89</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="B189" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H189" s="13">
+        <v>649.89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+      <c r="B190" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H190" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="8"/>
+      <c r="B191" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H191" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="8"/>
+      <c r="B192" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H192" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="8"/>
+      <c r="B193" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H193" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="8"/>
+      <c r="B194" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H194" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="8"/>
+      <c r="B195" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H195" s="13">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="8"/>
+      <c r="B196" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H196" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="8"/>
+      <c r="B197" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H197" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="8"/>
+      <c r="B198" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H198" s="13">
+        <v>30.45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="8"/>
+      <c r="B199" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H199" s="13">
+        <v>35.67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="8"/>
+      <c r="B200" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H200" s="13">
+        <v>55.68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="8"/>
+      <c r="B201" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H201" s="13">
+        <v>55.68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="8"/>
+      <c r="B202" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H202" s="13">
+        <v>75.69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="8"/>
+      <c r="B203" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H203" s="13">
+        <v>74.819999999999993</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="8"/>
+      <c r="B204" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H204" s="13">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="8"/>
+      <c r="B205" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H205" s="13">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+      <c r="B206" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="8"/>
+      <c r="B207" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="8"/>
+      <c r="B208" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+      <c r="B209" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+      <c r="B210" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="8"/>
+      <c r="B211" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="8"/>
+      <c r="B212" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H212" s="13">
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="8"/>
+      <c r="B213" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H213" s="13">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="8"/>
+      <c r="B214" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H214" s="13">
+        <v>28.49</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="8"/>
+      <c r="B215" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H215" s="13">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="8"/>
+      <c r="B216" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H216" s="13">
+        <v>56.92</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="8"/>
+      <c r="B217" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H217" s="13">
+        <v>221.04</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="8"/>
+      <c r="B218" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H218" s="13">
+        <v>186.82</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="8"/>
+      <c r="B219" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H219" s="13">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="8"/>
+      <c r="B220" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H220" s="13">
+        <v>432.94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="8"/>
+      <c r="B221" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H221" s="13">
+        <v>493.81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="8"/>
+      <c r="B222" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H222" s="13">
+        <v>998.09</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="8"/>
+      <c r="B223" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H223" s="13">
+        <v>100.75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="8"/>
+      <c r="B224" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H224" s="13">
+        <v>175.63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="8"/>
+      <c r="B225" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H225" s="13">
+        <v>267.56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="8"/>
+      <c r="B226" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H226" s="13">
+        <v>349.18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="8"/>
+      <c r="B227" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H227" s="13">
+        <v>464.92</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="8"/>
+      <c r="B228" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H228" s="13">
+        <v>661.52</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="8"/>
+      <c r="B229" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="8"/>
+      <c r="B230" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="8"/>
+      <c r="B231" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="8"/>
+      <c r="B232" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="8"/>
+      <c r="B233" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="8"/>
+      <c r="B234" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="8"/>
+      <c r="B235" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="8"/>
+      <c r="B236" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="8"/>
+      <c r="B237" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="8"/>
+      <c r="B238" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="8"/>
+      <c r="B239" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="8"/>
+      <c r="B240" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+      <c r="B241" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="8"/>
+      <c r="B242" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+      <c r="B243" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="8"/>
+      <c r="B244" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="8"/>
+      <c r="B245" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H245" s="13">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+      <c r="B246" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H246" s="13">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="8"/>
+      <c r="B247" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H247" s="13">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="8"/>
+      <c r="B248" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H248" s="13">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="8"/>
+      <c r="B249" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H249" s="13">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="8"/>
+      <c r="B250" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H250" s="13">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="8"/>
+      <c r="B251" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H251" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="8"/>
+      <c r="B252" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H252" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="8"/>
+      <c r="B253" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H253" s="13">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="8"/>
+      <c r="B254" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H254" s="13">
+        <v>41.56</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="8"/>
+      <c r="B255" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H255" s="13">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="8"/>
+      <c r="B256" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H256" s="13">
+        <v>69.19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="8"/>
+      <c r="B257" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H257" s="13">
+        <v>77.34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="8"/>
+      <c r="B258" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H258" s="13">
+        <v>111.25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="8"/>
+      <c r="B259" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H259" s="13">
+        <v>109.71</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="8"/>
+      <c r="B260" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H260" s="13">
+        <v>163.66999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="8"/>
+      <c r="B261" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H261" s="13">
+        <v>248.42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="8"/>
+      <c r="B262" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H262" s="13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="8"/>
+      <c r="B263" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H263" s="13">
+        <v>340.22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="8"/>
+      <c r="B264" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H264" s="13">
+        <v>340.22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="8"/>
+      <c r="B265" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H265" s="13">
+        <v>506.38</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="8"/>
+      <c r="B266" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H266" s="13">
+        <v>717.12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="8"/>
+      <c r="B267" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H267" s="13">
+        <v>932.77</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="8"/>
+      <c r="B268" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H268" s="13">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="8"/>
+      <c r="B269" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H269" s="13">
+        <v>1747.98</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="8"/>
+      <c r="B270" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H270" s="13">
+        <v>2126.69</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="8"/>
+      <c r="B271" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H271" s="13">
+        <v>2757.31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="8"/>
+      <c r="B272" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H272" s="13">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="8"/>
+      <c r="B273" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H273" s="13">
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
+      <c r="B274" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H274" s="13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="8"/>
+      <c r="B275" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C275" s="9" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H162" s="9">
-        <v>1476.39</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H163" s="9">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H164" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H165" s="9">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H166" s="9">
-        <v>82.65</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H167" s="9">
-        <v>90.48</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H168" s="9">
-        <v>140.07</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H169" s="9">
-        <v>161.82</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H170" s="9">
-        <v>184.44</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H171" s="9">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H172" s="9">
-        <v>985.71</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H173" s="9">
-        <v>1297.23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H174" s="9">
-        <v>1758.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H175" s="9">
-        <v>23.49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H176" s="9">
-        <v>23.49</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H177" s="9">
-        <v>29.58</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H178" s="9">
-        <v>37.409999999999997</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="B179" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H179" s="9">
-        <v>39.15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H180" s="9">
+      <c r="D275" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H275" s="13">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="8"/>
+      <c r="B276" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H276" s="13">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="8"/>
+      <c r="B277" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H277" s="13">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+      <c r="B278" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H278" s="13">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="8"/>
+      <c r="B279" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H279" s="13">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="8"/>
+      <c r="B280" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H280" s="13">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="8"/>
+      <c r="B281" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H281" s="13">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="8"/>
+      <c r="B282" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H282" s="13">
+        <v>318.34800000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="8"/>
+      <c r="B283" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H283" s="13">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="8"/>
+      <c r="B284" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H284" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="8"/>
+      <c r="B285" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H285" s="13">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H286" s="13">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
+      <c r="B287" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H287" s="13">
         <v>49.59</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H181" s="9">
-        <v>47.85</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H182" s="9">
-        <v>58.29</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H183" s="9">
-        <v>80.040000000000006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H184" s="9">
-        <v>80.040000000000006</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
-      <c r="B185" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H185" s="9">
-        <v>154.86000000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
-      <c r="B186" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H186" s="9">
-        <v>169.65</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-      <c r="B187" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H187" s="9">
-        <v>649.89</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H188" s="9">
-        <v>649.89</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H189" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-      <c r="B190" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H190" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-      <c r="B191" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H191" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
-      <c r="B192" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H192" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H193" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
-      <c r="B194" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H194" s="9">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H195" s="9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
-      <c r="B196" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H196" s="9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H197" s="9">
-        <v>30.45</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H198" s="9">
-        <v>35.67</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
-      <c r="B199" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H199" s="9">
-        <v>55.68</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H200" s="9">
-        <v>55.68</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H201" s="9">
-        <v>75.69</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H202" s="9">
-        <v>74.819999999999993</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H203" s="9">
-        <v>87.87</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H204" s="9">
-        <v>87.87</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
-      <c r="B205" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="10"/>
-      <c r="B206" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
-      <c r="B207" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
-      <c r="B208" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
-      <c r="B209" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
-      <c r="B211" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H211" s="9">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
-      <c r="B212" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H212" s="9">
-        <v>25.35</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
-      <c r="B213" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H213" s="9">
-        <v>28.49</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
-      <c r="B214" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H214" s="9">
-        <v>42.45</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="10"/>
-      <c r="B215" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H215" s="9">
-        <v>56.92</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
-      <c r="B216" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H216" s="9">
-        <v>221.04</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H217" s="9">
-        <v>186.82</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="10"/>
-      <c r="B218" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H218" s="9">
-        <v>98.75</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
-      <c r="B219" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H219" s="9">
-        <v>432.94</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H220" s="9">
-        <v>493.81</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="10"/>
-      <c r="B221" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H221" s="9">
-        <v>998.09</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H222" s="9">
-        <v>100.75</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
-      <c r="B223" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H223" s="9">
-        <v>175.63</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="10"/>
-      <c r="B224" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H224" s="9">
-        <v>267.56</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
-      <c r="B225" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H225" s="9">
-        <v>349.18</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
-      <c r="B226" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H226" s="9">
-        <v>464.92</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="10"/>
-      <c r="B227" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H227" s="9">
-        <v>661.52</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
-      <c r="B228" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
-      <c r="B229" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
-      <c r="B230" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
-      <c r="B231" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
-      <c r="B232" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="10"/>
-      <c r="B233" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
-      <c r="B234" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
-      <c r="B235" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
-      <c r="B236" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
-      <c r="B237" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
-      <c r="B238" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
-      <c r="B239" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
-      <c r="B240" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
-      <c r="B241" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="10"/>
-      <c r="B242" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="10"/>
-      <c r="B243" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
-      <c r="B244" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H244" s="9">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
-      <c r="B245" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C245" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H245" s="9">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="10"/>
-      <c r="B246" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H246" s="9">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
-      <c r="B247" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H247" s="9">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
-      <c r="B248" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H248" s="9">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
-      <c r="B249" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H249" s="9">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
-      <c r="B250" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H250" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
-      <c r="B251" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H251" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
-      <c r="B252" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H252" s="9">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
-      <c r="B253" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C253" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H253" s="9">
-        <v>41.56</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
-      <c r="B254" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H254" s="9">
-        <v>49.76</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
-      <c r="B255" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H255" s="9">
-        <v>69.19</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
-      <c r="B256" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H256" s="9">
-        <v>77.34</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
-      <c r="B257" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H257" s="9">
-        <v>111.25</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="10"/>
-      <c r="B258" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H258" s="9">
-        <v>109.71</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
-      <c r="B259" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H259" s="9">
-        <v>163.66999999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H260" s="9">
-        <v>248.42</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
-      <c r="B261" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H261" s="9">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
-      <c r="B262" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H262" s="9">
-        <v>340.22</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
-      <c r="B263" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H263" s="9">
-        <v>340.22</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="10"/>
-      <c r="B264" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H264" s="9">
-        <v>506.38</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
-      <c r="B265" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H265" s="9">
-        <v>717.12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
-      <c r="B266" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H266" s="9">
-        <v>932.77</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
-      <c r="B267" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H267" s="9">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
-      <c r="B268" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H268" s="9">
-        <v>1747.98</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
-      <c r="B269" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H269" s="9">
-        <v>2126.69</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="10"/>
-      <c r="B270" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H270" s="9">
-        <v>2757.31</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
-      <c r="B271" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C271" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H271" s="9">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
-      <c r="B272" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H272" s="9">
-        <v>91.07</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="10"/>
-      <c r="B273" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C273" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H273" s="9">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
-      <c r="B274" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H274" s="9">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="10"/>
-      <c r="B275" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H275" s="9">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="10"/>
-      <c r="B276" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C276" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H276" s="9">
-        <v>9.93</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
-      <c r="B277" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H277" s="9">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="10"/>
-      <c r="B278" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H278" s="9">
-        <v>32.99</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="10"/>
-      <c r="B279" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C279" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H279" s="9">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="10"/>
-      <c r="B280" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C280" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H280" s="9">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="10"/>
-      <c r="B281" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C281" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H281" s="9">
-        <v>318.34800000000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="10"/>
-      <c r="B282" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H282" s="9">
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="10"/>
-      <c r="B283" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H283" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="10"/>
-      <c r="B284" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H284" s="9">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="8"/>
+      <c r="B288" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H288" s="13">
+        <v>54.81</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="8"/>
+      <c r="B289" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H289" s="13">
+        <v>98.95</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="8"/>
+      <c r="B290" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H290" s="13">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="8"/>
+      <c r="B291" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H291" s="13">
         <v>37.340000000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="10"/>
-      <c r="B285" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H285" s="9">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H292" s="13">
         <v>43.16</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="10"/>
-      <c r="B286" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C286" s="12" t="s">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="8"/>
+      <c r="B293" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H293" s="13">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="8"/>
+      <c r="B294" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C294" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="D286" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H286" s="9">
-        <v>49.59</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="10"/>
-      <c r="B287" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H287" s="9">
-        <v>54.81</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="10"/>
-      <c r="B288" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C288" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H288" s="9">
-        <v>98.95</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="10"/>
-      <c r="B289" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C289" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H289" s="9">
-        <v>122.4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
-      <c r="B290" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H290" s="9">
-        <v>37.340000000000003</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
-      <c r="B291" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C291" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H291" s="9">
-        <v>43.16</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
-      <c r="B292" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C292" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H292" s="9">
-        <v>49.59</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="10"/>
-      <c r="B293" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C293" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H293" s="9">
+      <c r="D294" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H294" s="13">
         <v>54.81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>